--- a/generated_output/temp/us-core-careplan.xlsx
+++ b/generated_output/temp/us-core-careplan.xlsx
@@ -178,7 +178,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -197,7 +197,7 @@
     <t>CarePlan.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -213,7 +213,7 @@
     <t>CarePlan.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -232,7 +232,7 @@
     <t>CarePlan.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -264,7 +264,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -286,7 +286,7 @@
     <t>CarePlan.text.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -309,7 +309,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -362,7 +362,7 @@
     <t>CarePlan.text.div</t>
   </si>
   <si>
-    <t xml:space="preserve">xhtml {[]} {[]}
+    <t xml:space="preserve">xhtml
 </t>
   </si>
   <si>
@@ -389,7 +389,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -433,7 +433,7 @@
     <t>CarePlan.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -464,7 +464,7 @@
     <t>CarePlan.instantiatesCanonical</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/PlanDefinition], CanonicalType[http://hl7.org/fhir/StructureDefinition/Questionnaire], CanonicalType[http://hl7.org/fhir/StructureDefinition/Measure], CanonicalType[http://hl7.org/fhir/StructureDefinition/ActivityDefinition], CanonicalType[http://hl7.org/fhir/StructureDefinition/OperationDefinition]]}
+    <t xml:space="preserve">canonical(PlanDefinition|Questionnaire|Measure|ActivityDefinition|OperationDefinition)
 </t>
   </si>
   <si>
@@ -502,7 +502,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/CarePlan]]}
+    <t xml:space="preserve">Reference(CarePlan)
 </t>
   </si>
   <si>
@@ -610,7 +610,7 @@
     <t>CarePlan.category</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -684,7 +684,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient]]}
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
 </t>
   </si>
   <si>
@@ -712,7 +712,7 @@
     <t>CarePlan.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter]]}
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -744,7 +744,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Period {[]} {[]}
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
@@ -779,7 +779,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
@@ -801,7 +801,7 @@
     <t>CarePlan.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/PractitionerRole], CanonicalType[http://hl7.org/fhir/StructureDefinition/Device], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson], CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization], CanonicalType[http://hl7.org/fhir/StructureDefinition/CareTeam]]}
+    <t xml:space="preserve">Reference(Patient|Practitioner|PractitionerRole|Device|RelatedPerson|Organization|CareTeam)
 </t>
   </si>
   <si>
@@ -835,7 +835,7 @@
     <t>CarePlan.careTeam</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/CareTeam]]}
+    <t xml:space="preserve">Reference(CareTeam)
 </t>
   </si>
   <si>
@@ -857,7 +857,7 @@
     <t>CarePlan.addresses</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Condition]]}
+    <t xml:space="preserve">Reference(Condition)
 </t>
   </si>
   <si>
@@ -888,7 +888,7 @@
     <t>CarePlan.supportingInfo</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}
+    <t xml:space="preserve">Reference(Resource)
 </t>
   </si>
   <si>
@@ -910,7 +910,7 @@
     <t>CarePlan.goal</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Goal]]}
+    <t xml:space="preserve">Reference(Goal)
 </t>
   </si>
   <si>
@@ -935,7 +935,7 @@
     <t>CarePlan.activity</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -1024,7 +1024,7 @@
     <t>CarePlan.activity.progress</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation {[]} {[]}
+    <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
@@ -1049,7 +1049,7 @@
     <t>CarePlan.activity.reference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Appointment], CanonicalType[http://hl7.org/fhir/StructureDefinition/CommunicationRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/DeviceRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/NutritionOrder], CanonicalType[http://hl7.org/fhir/StructureDefinition/Task], CanonicalType[http://hl7.org/fhir/StructureDefinition/ServiceRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/VisionPrescription], CanonicalType[http://hl7.org/fhir/StructureDefinition/RequestGroup]]}
+    <t xml:space="preserve">Reference(Appointment|CommunicationRequest|DeviceRequest|MedicationRequest|NutritionOrder|Task|ServiceRequest|VisionPrescription|RequestGroup)
 </t>
   </si>
   <si>
@@ -1125,7 +1125,7 @@
     <t>CarePlan.activity.detail.instantiatesCanonical</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/PlanDefinition], CanonicalType[http://hl7.org/fhir/StructureDefinition/ActivityDefinition], CanonicalType[http://hl7.org/fhir/StructureDefinition/Questionnaire], CanonicalType[http://hl7.org/fhir/StructureDefinition/Measure], CanonicalType[http://hl7.org/fhir/StructureDefinition/OperationDefinition]]}
+    <t xml:space="preserve">canonical(PlanDefinition|ActivityDefinition|Questionnaire|Measure|OperationDefinition)
 </t>
   </si>
   <si>
@@ -1195,7 +1195,7 @@
     <t>CarePlan.activity.detail.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Condition], CanonicalType[http://hl7.org/fhir/StructureDefinition/Observation], CanonicalType[http://hl7.org/fhir/StructureDefinition/DiagnosticReport], CanonicalType[http://hl7.org/fhir/StructureDefinition/DocumentReference]]}
+    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport|DocumentReference)
 </t>
   </si>
   <si>
@@ -1269,7 +1269,7 @@
     <t>CarePlan.activity.detail.doNotPerform</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean {[]} {[]}
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
@@ -1297,8 +1297,8 @@
     <t>CarePlan.activity.detail.scheduled[x]</t>
   </si>
   <si>
-    <t>Timing {[]} {[]}
-Period {[]} {[]}string {[]} {[]}</t>
+    <t>Timing
+Periodstring</t>
   </si>
   <si>
     <t>When activity is to occur</t>
@@ -1316,7 +1316,7 @@
     <t>CarePlan.activity.detail.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Location]]}
+    <t xml:space="preserve">Reference(Location)
 </t>
   </si>
   <si>
@@ -1341,7 +1341,7 @@
     <t>CarePlan.activity.detail.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/PractitionerRole], CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson], CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/CareTeam], CanonicalType[http://hl7.org/fhir/StructureDefinition/HealthcareService], CanonicalType[http://hl7.org/fhir/StructureDefinition/Device]]}
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|RelatedPerson|Patient|CareTeam|HealthcareService|Device)
 </t>
   </si>
   <si>
@@ -1366,8 +1366,8 @@
     <t>CarePlan.activity.detail.product[x]</t>
   </si>
   <si>
-    <t>CodeableConcept {[]} {[]}
-Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Medication], CanonicalType[http://hl7.org/fhir/StructureDefinition/Substance]]}</t>
+    <t>CodeableConcept
+Reference(Medication|Substance)</t>
   </si>
   <si>
     <t>What is to be administered/supplied</t>
@@ -1395,7 +1395,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {[CanonicalType[http://hl7.org/fhir/StructureDefinition/SimpleQuantity]]} {[]}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -1506,67 +1506,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
